--- a/models_hyperparameters.xlsx
+++ b/models_hyperparameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\automl-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88296D76-6010-448F-8332-76FC6181A646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B841160C-6C30-4601-AD6A-AF4F1A012DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2246" windowWidth="24686" windowHeight="14597" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15600" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="16" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -889,7 +889,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
